--- a/Testing/Test-data/Automate.xlsx
+++ b/Testing/Test-data/Automate.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Emp Name</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>HHHH</t>
-  </si>
-  <si>
-    <t>1111</t>
   </si>
 </sst>
 </file>
@@ -363,8 +360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -381,8 +378,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="1">
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
